--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1920648.256284593</v>
+        <v>-1884132.812730226</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484448</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11201123.97145501</v>
+        <v>11216035.48940289</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>369.5383531969933</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>94.06821914862122</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>164.9854106961841</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,19 +871,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>195.7736990076557</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.00377606262818</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.5122002751354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,10 +908,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>108.1925609535525</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>25.68008452176533</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>60.39290584493292</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,19 +1139,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>34.7831602542068</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>290.6529943877492</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>192.6885925717419</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1370,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>67.3818960713967</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1537,13 +1537,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>14.14416275345367</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701016306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1661,13 +1661,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>137.4748886338647</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1774,7 +1774,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345739</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -2008,16 +2008,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>14.14416275345335</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>114.8528499950181</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193455</v>
       </c>
       <c r="H28" t="n">
-        <v>14.14416275345333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317971</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016072</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704924</v>
       </c>
       <c r="E31" t="n">
-        <v>43.70143389869422</v>
+        <v>168.06042371177</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978612</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170788</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149832</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573291</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394256</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695713</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199215</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790327</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3089,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
@@ -3196,13 +3196,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
         <v>71.53763939432403</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3326,7 +3326,7 @@
         <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043291</v>
       </c>
       <c r="X35" t="n">
         <v>398.715328447735</v>
@@ -3424,7 +3424,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934483</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413112</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>417.5253377496634</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>415.3149766385524</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545402</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561368</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242223</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724684</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925385</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169443</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267642</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043295</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477349</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245956</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930497</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.6003840628598</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>147.983502531745</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730226</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591138</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856831</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277817</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.5376393943239</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934327</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>141.4132446762358</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>227.1849416185818</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>259.4129604006782</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>253.0704300308278</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811741</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402853</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413108</v>
+        <v>405.8008644413112</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>417.5253377496634</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>415.3149766385524</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545402</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561368</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242212</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724684</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925385</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169443</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267642</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043295</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477349</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245956</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930497</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>154.6003840628598</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>147.983502531745</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730226</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.7042731591138</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856831</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277817</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.5376393943239</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934327</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>141.4132446762358</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>227.1849416185818</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>259.4129604006782</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>253.0704300308239</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811741</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402853</v>
       </c>
     </row>
     <row r="44">
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>1288.205106512807</v>
       </c>
       <c r="C2" t="n">
-        <v>449.961607123969</v>
+        <v>914.93404267746</v>
       </c>
       <c r="D2" t="n">
-        <v>418.0922263388176</v>
+        <v>486.3523684147282</v>
       </c>
       <c r="E2" t="n">
-        <v>418.0922263388176</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>418.0922263388176</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,28 +4328,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1310.46427295731</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1310.46427295731</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1310.46427295731</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>1310.46427295731</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>1310.46427295731</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4404,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4087263891149</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4087263891149</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,19 +4486,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1094.311403838025</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1094.311403838025</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6628811189632</v>
+        <v>1094.311403838025</v>
       </c>
       <c r="X4" t="n">
-        <v>466.2711264523757</v>
+        <v>1094.311403838025</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4087263891149</v>
+        <v>866.8917331521334</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.2911052642175</v>
+        <v>1267.786443190512</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1890364880448</v>
+        <v>829.643970373935</v>
       </c>
       <c r="D5" t="n">
-        <v>489.3196557028934</v>
+        <v>393.7341855483795</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>363.9998447470787</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>340.1728191966905</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>340.1728191966905</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>51.04266463990674</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704674</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>562.6504997812787</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1189.145706210982</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640685</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.13969859928</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536174</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409213</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2118.289247304614</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2118.289247304614</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2117.474196756051</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1698.331733335362</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1694.08601367542</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>1374.225746864821</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>1267.769285701463</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>1172.678996848017</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>1078.55858217497</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>995.174743791132</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>909.7896540573158</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>868.0540018735283</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>894.1176750339858</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>1218.676000000198</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>1845.171206429902</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>1845.171206429902</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1845.171206429902</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1845.171206429902</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1845.171206429902</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1873.382046625922</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>2414.120985257997</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>2467.83832580072</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>2337.659682131322</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>2161.32313513129</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1962.20561719329</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>1776.882862926484</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>1622.015427165363</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>1495.529647944584</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.5053801183834</v>
+        <v>787.098989042207</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>614.5372775254319</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>614.5372775254319</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.1879988019969</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704674</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.2055604317366</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.9640150028722</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>830.1738967708333</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1289.657763951746</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.916567109391</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.585816335172</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2499.092710305514</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2509.875942057709</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2350.634573355705</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2104.755126934161</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1826.322126187266</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1539.366618057696</v>
       </c>
       <c r="W7" t="n">
-        <v>679.3168054708626</v>
+        <v>1267.340213643988</v>
       </c>
       <c r="X7" t="n">
-        <v>433.9250508042751</v>
+        <v>1206.337278447086</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.5053801183834</v>
+        <v>978.9176077611942</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552.3238179760524</v>
+        <v>863.8788077480212</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2217491998797</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1662.048924773138</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1402.826622090155</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1402.826622090155</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>997.971167501188</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>982.8691081209028</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y8" t="n">
-        <v>978.6233884609602</v>
+        <v>886.137974192525</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.5053801183834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1481.130666794131</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1202.697666047236</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>915.7421579176664</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>643.715753503958</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>398.3239988373705</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.3239988373705</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1424.094121422154</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>985.9516486055777</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>550.0418637800221</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>481.979342495783</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>481.979342495783</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>80.58151111904691</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904691</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>80.16472174618691</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>80.16472174618691</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>80.16472174618691</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>492.0552635849286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>1484.093695193992</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2464.273361764298</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597694</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556289</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309346</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493183</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366221</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.294683683238</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3082.677733617064</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2677.822279028098</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2258.679815607409</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1850.393691907062</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>80.16472174618691</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>80.16472174618691</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>80.16472174618691</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>80.16472174618691</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>80.16472174618691</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>80.16472174618691</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>265.7696000193824</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.240737869171</v>
+        <v>970.9960463903994</v>
       </c>
       <c r="C13" t="n">
-        <v>595.6790263523959</v>
+        <v>798.4343348736244</v>
       </c>
       <c r="D13" t="n">
-        <v>429.8010335539186</v>
+        <v>632.5563420751471</v>
       </c>
       <c r="E13" t="n">
-        <v>260.0430298046559</v>
+        <v>462.7983383258843</v>
       </c>
       <c r="F13" t="n">
-        <v>245.7559967203592</v>
+        <v>286.0912842876405</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618691</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108768</v>
+        <v>188.8405254354736</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.5989800066092</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745702</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.165141652355</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="T13" t="n">
-        <v>2270.28569523081</v>
+        <v>2473.041003752039</v>
       </c>
       <c r="U13" t="n">
-        <v>1991.852694483915</v>
+        <v>2194.608003005144</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.897186354346</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.870781940637</v>
+        <v>1635.626090461866</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.47902727405</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y13" t="n">
-        <v>960.0593565881582</v>
+        <v>1162.814665109387</v>
       </c>
     </row>
     <row r="14">
@@ -5279,25 +5279,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>525.945884713274</v>
       </c>
       <c r="L14" t="n">
-        <v>306.1208027766299</v>
+        <v>1601.005850966133</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5309,10 +5309,10 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257732</v>
@@ -5352,25 +5352,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937674</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769924</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D16" t="n">
-        <v>451.8971520785151</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292524</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5440,16 +5440,16 @@
         <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745698</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
         <v>2550.727675309251</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176952</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755407</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008512</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878942</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.966900465234</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798646</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127546</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
         <v>793.2056155771595</v>
@@ -5513,16 +5513,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5558,7 +5558,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5656,13 +5656,13 @@
         <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>407.7542895545774</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,16 +5750,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5896,10 +5896,10 @@
         <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5975,28 +5975,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>282.1391483292483</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6178,19 +6178,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6224,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F28" t="n">
-        <v>282.1391483292483</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G28" t="n">
-        <v>116.5478733550759</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6461,16 +6461,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883944</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716194</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731423</v>
       </c>
       <c r="E31" t="n">
-        <v>407.7542895545774</v>
+        <v>303.5569696238797</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856361</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6619,52 +6619,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354696</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066053</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745666</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N31" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471577</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050033</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303138</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173569</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.38472175986</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.992967093273</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407381</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,49 +6701,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>306.1208027766299</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6835,19 +6835,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.359044888629</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
         <v>760.8807595030279</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412736</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799774</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
         <v>174.5210820832282</v>
@@ -6862,7 +6862,7 @@
         <v>495.7456864773249</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>930.0289214806459</v>
       </c>
       <c r="M34" t="n">
         <v>1405.586141896919</v>
@@ -6880,7 +6880,7 @@
         <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6892,7 +6892,7 @@
         <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1937.578667826199</v>
       </c>
       <c r="W34" t="n">
         <v>1681.951970825366</v>
@@ -6917,58 +6917,58 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>97.56670367581785</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V35" t="n">
         <v>4018.375659750116</v>
@@ -7008,28 +7008,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
         <v>1102.894748428211</v>
@@ -7078,19 +7078,19 @@
         <v>756.1866229080659</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463116</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7111,10 +7111,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
         <v>2837.795025579744</v>
@@ -7129,7 +7129,7 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W37" t="n">
         <v>1677.257834230404</v>
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835863</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197253</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581785</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,67 +7306,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936665</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080654</v>
+        <v>756.1866229080655</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716789</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463112</v>
+        <v>442.5209799463115</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882662</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823633</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156104</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361806</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461498</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579746</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290619</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281951</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.440331947932</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231239</v>
       </c>
       <c r="W40" t="n">
         <v>1677.257834230403</v>
@@ -7375,7 +7375,7 @@
         <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835851</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197253</v>
       </c>
       <c r="H41" t="n">
         <v>97.56670367581783</v>
@@ -7409,28 +7409,28 @@
         <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581783</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581783</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239091</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790891</v>
@@ -7439,19 +7439,19 @@
         <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673519</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278741</v>
@@ -7485,25 +7485,25 @@
         <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581783</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936665</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080655</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463115</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882662</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758641</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823597</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856807</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301954</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694958</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.9667641561</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361802</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461494</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579742</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290615</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281947</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947928</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231235</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581783</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581783</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239091</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790891</v>
@@ -7722,25 +7722,25 @@
         <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581783</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
@@ -7997,10 +7997,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8052,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,22 +8134,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>77.54539097102429</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380843</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380843</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,13 +8289,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380843</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>28.49579817779818</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>32.52631620891179</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623654</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,16 +8927,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>427.964691356055</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,13 +10364,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>64.22269489141765</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>130.6621837640445</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>362.0551013218911</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.4463752142675</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>52.42554389793258</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.795820744404</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.409952087436605e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>73.62918697961807</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>90.92021546249606</v>
       </c>
       <c r="H28" t="n">
-        <v>124.3589898130759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627226</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665291</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307127</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.2036430816817</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-3.950617610826157e-12</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>887610.813237177</v>
+        <v>738297.5517859972</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>968918.5427849708</v>
+        <v>979611.1632289647</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>968918.5427849708</v>
+        <v>981390.0448426382</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829000.0962971664</v>
+        <v>989195.138138917</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>989195.138138917</v>
+        <v>989195.1381389168</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>989195.1381389167</v>
+        <v>989195.1381389168</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>989195.1381389168</v>
+        <v>989195.138138917</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1003140.431972549</v>
+        <v>1003140.43197255</v>
       </c>
     </row>
     <row r="15">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246193</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106449</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725248</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471811</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338196</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143533</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978838</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341146</v>
+        <v>1.080024958355352e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173310.0976664683</v>
+        <v>124611.1870481613</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>162797.3894436018</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>56988.33653407507</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="F4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26442,19 +26442,19 @@
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933284</v>
       </c>
       <c r="L4" t="n">
-        <v>73343.05610596602</v>
+        <v>73343.05610596607</v>
       </c>
       <c r="M4" t="n">
-        <v>81349.24995213676</v>
+        <v>81349.2499521368</v>
       </c>
       <c r="N4" t="n">
-        <v>81349.24995213677</v>
+        <v>81349.24995213686</v>
       </c>
       <c r="O4" t="n">
-        <v>81349.24995213683</v>
+        <v>81349.24995213686</v>
       </c>
       <c r="P4" t="n">
         <v>81349.24995213677</v>
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295552</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710205</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26488,25 +26488,25 @@
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="L5" t="n">
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
         <v>75515.6147260897</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-374926.1864634005</v>
+        <v>-326556.7344036635</v>
       </c>
       <c r="C6" t="n">
-        <v>-259253.6143837379</v>
+        <v>-302269.8040390192</v>
       </c>
       <c r="D6" t="n">
-        <v>-259253.614383738</v>
+        <v>-241625.469015496</v>
       </c>
       <c r="E6" t="n">
-        <v>-290420.8951337019</v>
+        <v>-328097.2704555578</v>
       </c>
       <c r="F6" t="n">
-        <v>-224857.8425998434</v>
+        <v>-145742.1612345079</v>
       </c>
       <c r="G6" t="n">
-        <v>-145718.9368951253</v>
+        <v>-145742.161234508</v>
       </c>
       <c r="H6" t="n">
-        <v>-145718.9368951253</v>
+        <v>-145742.1612345079</v>
       </c>
       <c r="I6" t="n">
-        <v>-145718.9368951253</v>
+        <v>-145742.1612345079</v>
       </c>
       <c r="J6" t="n">
-        <v>-256733.4022401156</v>
+        <v>-256756.6265794981</v>
       </c>
       <c r="K6" t="n">
-        <v>-145718.9368951253</v>
+        <v>-199410.48829789</v>
       </c>
       <c r="L6" t="n">
-        <v>-165414.7829152246</v>
+        <v>-174194.9566056621</v>
       </c>
       <c r="M6" t="n">
-        <v>-286223.2860761102</v>
+        <v>-294442.5654160784</v>
       </c>
       <c r="N6" t="n">
-        <v>-224514.0649516379</v>
+        <v>-156864.8646782267</v>
       </c>
       <c r="O6" t="n">
-        <v>-156864.8646782265</v>
+        <v>-156864.8646782266</v>
       </c>
       <c r="P6" t="n">
         <v>-156864.8646782265</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874737</v>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380843</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874723</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.35003119794419e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179799</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.6917657697727</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072322</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574088</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179799</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.6917657697727</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702099</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574088</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179799</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.6917657697727</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072322</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574088</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>172.653450150303</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,16 +27430,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>91.64466895996918</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>79.87497173177002</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.1416979164046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.5243745049233</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>148.4375187026007</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>243.626055847806</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>182.5449312749887</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,19 +27859,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>183.083394601485</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>113.5502680755939</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>50.73205938558741</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28381,13 +28381,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>-4.484950034982556e-13</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28512,19 +28512,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>3.770613451100265e-12</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874794</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387464</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874751</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874788</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874384</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874751</v>
       </c>
     </row>
     <row r="44">
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,7 +34708,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
@@ -34717,10 +34717,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34787,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>77.54539097102429</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380843</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380843</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380843</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>28.49579817779818</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>32.52631620891179</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623654</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908485</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,16 +35647,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>427.964691356055</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,19 +35808,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080452</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908081</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960967</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080417</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37069,10 +37069,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37084,13 +37084,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P34" t="n">
         <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778282</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033062</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209006</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778245</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033062</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
         <v>186.1274021209015</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
